--- a/public/data/lime/lime_table_senegal.xlsx
+++ b/public/data/lime/lime_table_senegal.xlsx
@@ -1474,16 +1474,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.98</v>
+        <v>0.32</v>
       </c>
       <c r="K5" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1521,16 +1521,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.72</v>
+        <v>0.35</v>
       </c>
       <c r="K6" t="n">
-        <v>0.37</v>
+        <v>0.03</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1568,16 +1568,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.46</v>
+        <v>0.07</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.71</v>
+        <v>0.22</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>9.92</v>
+        <v>2.21</v>
       </c>
       <c r="K9" t="n">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1691,34 +1691,34 @@
         <v>95</v>
       </c>
       <c r="D10" t="n">
-        <v>8.33</v>
+        <v>1.84</v>
       </c>
       <c r="E10" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.28</v>
+        <v>1.72</v>
       </c>
       <c r="K10" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.62</v>
+        <v>0.14</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.55</v>
+        <v>0.03</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1944,16 +1944,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.95</v>
+        <v>0.26</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2038,16 +2038,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>10.38</v>
+        <v>2.31</v>
       </c>
       <c r="K17" t="n">
-        <v>3.43</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>5.76</v>
+        <v>0.2</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2114,16 +2114,16 @@
         <v>104</v>
       </c>
       <c r="D19" t="n">
-        <v>1.24</v>
+        <v>0.67</v>
       </c>
       <c r="E19" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2132,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.28</v>
+        <v>0.58</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         <v>105</v>
       </c>
       <c r="D20" t="n">
-        <v>1.05</v>
+        <v>0.47</v>
       </c>
       <c r="E20" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2179,16 +2179,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.14</v>
+        <v>0.46</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2226,16 +2226,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.39</v>
+        <v>0.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2349,16 +2349,16 @@
         <v>109</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6</v>
+        <v>0.26</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.54</v>
+        <v>0.09</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.42</v>
+        <v>0.02</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.26</v>
+        <v>0.02</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>121</v>
       </c>
       <c r="D35" t="n">
-        <v>3.98</v>
+        <v>1.88</v>
       </c>
       <c r="E35" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2884,16 +2884,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.91</v>
+        <v>1.32</v>
       </c>
       <c r="K35" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2913,16 +2913,16 @@
         <v>119</v>
       </c>
       <c r="D36" t="n">
-        <v>4.39</v>
+        <v>1.94</v>
       </c>
       <c r="E36" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2931,19 +2931,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>4.58</v>
+        <v>1.28</v>
       </c>
       <c r="K36" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.1</v>
+        <v>0.29</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>122</v>
       </c>
       <c r="D40" t="n">
-        <v>1.91</v>
+        <v>0.6</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.74</v>
+        <v>0.23</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3213,16 +3213,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.07</v>
+        <v>0.42</v>
       </c>
       <c r="K42" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3260,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.62</v>
+        <v>0.27</v>
       </c>
       <c r="K43" t="n">
-        <v>0.46</v>
+        <v>0.03</v>
       </c>
       <c r="L43" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3289,37 +3289,37 @@
         <v>130</v>
       </c>
       <c r="D44" t="n">
-        <v>9.12</v>
+        <v>3.55</v>
       </c>
       <c r="E44" t="n">
-        <v>6.33</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>7.46</v>
+        <v>2.03</v>
       </c>
       <c r="K44" t="n">
-        <v>4.03</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3336,40 +3336,40 @@
         <v>131</v>
       </c>
       <c r="D45" t="n">
-        <v>6.07</v>
+        <v>1.94</v>
       </c>
       <c r="E45" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>8.51</v>
+        <v>1.56</v>
       </c>
       <c r="K45" t="n">
-        <v>4.82</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3383,40 +3383,40 @@
         <v>129</v>
       </c>
       <c r="D46" t="n">
-        <v>6.88</v>
+        <v>1.74</v>
       </c>
       <c r="E46" t="n">
-        <v>3.83</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>8</v>
+        <v>2.33</v>
       </c>
       <c r="K46" t="n">
-        <v>4.62</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
